--- a/biology/Mycologie/Gibberella_intricans/Gibberella_intricans.xlsx
+++ b/biology/Mycologie/Gibberella_intricans/Gibberella_intricans.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Gibberella intricans est une espèce de champignons  ascomycètes de la famille des Nectriaceae. C'est un agent phytopathogène, qui est l'un des champignons responsables de la fusariose de la pomme de terre.
 Anamorphe : Fusarium equiseti (Corda) Sacc. (1886).
@@ -512,7 +524,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Fusarium equiseti (Corda) Sacc., 1886,
 Fusarium falcatum Appel &amp; Wollenw.,
